--- a/business/online_details_october.xlsx
+++ b/business/online_details_october.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="19420" windowHeight="7940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">handoverdetails!$A$1:$K$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'order-received-ikram'!$A$1:$N$34</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="113">
   <si>
     <t>no.</t>
   </si>
@@ -361,13 +361,16 @@
   </si>
   <si>
     <t>praveen sbi 2561</t>
+  </si>
+  <si>
+    <t>susheel bhai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +571,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -646,6 +654,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -680,6 +689,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -855,24 +865,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -911,7 +921,7 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -948,7 +958,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -969,7 +979,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -990,7 +1000,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -1011,7 +1021,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1044,7 +1054,7 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
@@ -1063,7 +1073,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -1082,7 +1092,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -1101,7 +1111,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -1120,7 +1130,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>3</v>
       </c>
@@ -1157,7 +1167,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
@@ -1178,7 +1188,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
@@ -1199,7 +1209,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
@@ -1220,7 +1230,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -1255,7 +1265,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -1274,7 +1284,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
@@ -1293,7 +1303,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
@@ -1312,7 +1322,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>5</v>
       </c>
@@ -1343,7 +1353,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1366,7 +1376,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1374,7 +1384,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F22" s="3" t="s">
         <v>28</v>
       </c>
@@ -1382,7 +1392,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1400,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1419,7 +1429,7 @@
         <v>21997</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1427,7 +1437,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1435,7 +1445,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>7</v>
       </c>
@@ -1464,7 +1474,7 @@
         <v>33994</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1472,7 +1482,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1498,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F31" s="3" t="s">
         <v>28</v>
       </c>
@@ -1496,7 +1506,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F32" s="3" t="s">
         <v>21</v>
       </c>
@@ -1504,7 +1514,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>8</v>
       </c>
@@ -1533,7 +1543,7 @@
         <v>17998</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F34" s="3" t="s">
         <v>23</v>
       </c>
@@ -1541,7 +1551,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1565,7 +1575,7 @@
       </c>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F36" s="3" t="s">
         <v>31</v>
       </c>
@@ -1573,7 +1583,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F37" s="3" t="s">
         <v>32</v>
       </c>
@@ -1581,7 +1591,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F38" s="3" t="s">
         <v>33</v>
       </c>
@@ -1589,7 +1599,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F39" s="3" t="s">
         <v>22</v>
       </c>
@@ -1597,7 +1607,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>10</v>
       </c>
@@ -1626,7 +1636,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F41" s="3" t="s">
         <v>34</v>
       </c>
@@ -1634,7 +1644,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F42" s="3" t="s">
         <v>35</v>
       </c>
@@ -1642,7 +1652,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F43" s="3" t="s">
         <v>35</v>
       </c>
@@ -1650,7 +1660,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>11</v>
       </c>
@@ -1676,7 +1686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F45" s="3" t="s">
         <v>33</v>
       </c>
@@ -1684,7 +1694,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F46" s="3" t="s">
         <v>32</v>
       </c>
@@ -1692,7 +1702,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="F47" s="3" t="s">
         <v>32</v>
       </c>
@@ -1700,7 +1710,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>12</v>
       </c>
@@ -1726,7 +1736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F49" s="3" t="s">
         <v>33</v>
       </c>
@@ -1734,7 +1744,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F50" s="3" t="s">
         <v>32</v>
       </c>
@@ -1742,7 +1752,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="F51" s="3" t="s">
         <v>32</v>
       </c>
@@ -1750,7 +1760,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>13</v>
       </c>
@@ -1776,7 +1786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1788,25 +1798,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -1850,7 +1860,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -1860,7 +1870,7 @@
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
@@ -1870,7 +1880,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
@@ -1880,7 +1890,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
@@ -1890,7 +1900,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1913,7 +1923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
@@ -1925,7 +1935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -1937,7 +1947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
@@ -1949,7 +1959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -1970,7 +1980,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1980,7 +1990,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1990,7 +2000,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -2013,7 +2023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2025,7 +2035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2037,7 +2047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2050,7 +2060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2063,7 +2073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -2084,7 +2094,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2094,7 +2104,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2104,7 +2114,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2114,7 +2124,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2124,7 +2134,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2134,7 +2144,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>11</v>
       </c>
@@ -2155,7 +2165,7 @@
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2165,7 +2175,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>13</v>
       </c>
@@ -2192,27 +2202,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="2"/>
+    <col min="3" max="3" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2287,7 +2297,7 @@
         <v>9164</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H3" s="2" t="s">
         <v>56</v>
       </c>
@@ -2296,7 +2306,7 @@
         <v>4582</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2329,7 +2339,7 @@
         <v>12831</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H5" s="2" t="s">
         <v>58</v>
       </c>
@@ -2337,7 +2347,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2370,7 +2380,7 @@
         <v>37354</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H7" s="2" t="s">
         <v>56</v>
       </c>
@@ -2378,7 +2388,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2386,7 +2396,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2394,7 +2404,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
@@ -2402,7 +2412,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5">
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2437,7 +2447,7 @@
         <v>22995</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2445,7 +2455,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H13" s="2" t="s">
         <v>56</v>
       </c>
@@ -2453,7 +2463,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14" s="2" t="s">
         <v>56</v>
       </c>
@@ -2461,7 +2471,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5">
+    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>5</v>
       </c>
@@ -2496,7 +2506,7 @@
         <v>17998</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5">
+    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
       <c r="D16" s="17">
         <v>43750</v>
       </c>
@@ -2507,7 +2517,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2542,7 +2552,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2550,7 +2560,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5">
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="D19" s="17">
         <v>43750</v>
       </c>
@@ -2561,7 +2571,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H20" s="2" t="s">
         <v>56</v>
       </c>
@@ -2569,7 +2579,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H21" s="2" t="s">
         <v>56</v>
       </c>
@@ -2577,7 +2587,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H22" s="2" t="s">
         <v>56</v>
       </c>
@@ -2585,7 +2595,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H23" s="2" t="s">
         <v>58</v>
       </c>
@@ -2593,7 +2603,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5">
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>7</v>
       </c>
@@ -2628,7 +2638,7 @@
         <v>16997</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H25" s="2" t="s">
         <v>56</v>
       </c>
@@ -2636,7 +2646,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H26" s="2" t="s">
         <v>58</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5">
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2679,7 +2689,7 @@
         <v>23995</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H28" s="2" t="s">
         <v>56</v>
       </c>
@@ -2687,7 +2697,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H29" s="2" t="s">
         <v>56</v>
       </c>
@@ -2695,7 +2705,7 @@
         <v>5499</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H30" s="2" t="s">
         <v>58</v>
       </c>
@@ -2703,7 +2713,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5">
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -2739,7 +2749,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5">
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>10</v>
       </c>
@@ -2774,7 +2784,7 @@
         <v>21997</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H33" s="2" t="s">
         <v>58</v>
       </c>
@@ -2782,7 +2792,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H34" s="2" t="s">
         <v>20</v>
       </c>
@@ -2790,7 +2800,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16.5">
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>11</v>
       </c>
@@ -2825,7 +2835,7 @@
         <v>8998</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H36" s="2" t="s">
         <v>56</v>
       </c>
@@ -2833,7 +2843,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>12</v>
       </c>
@@ -2865,7 +2875,7 @@
         <v>12998</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H38" s="2" t="s">
         <v>23</v>
       </c>
@@ -2873,7 +2883,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H39" s="2" t="s">
         <v>58</v>
       </c>
@@ -2887,7 +2897,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>13</v>
       </c>
@@ -2920,7 +2930,7 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D41" s="10"/>
       <c r="H41" s="2" t="s">
         <v>56</v>
@@ -2929,7 +2939,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16.5">
+    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
       <c r="D42" s="18">
         <v>43761</v>
       </c>
@@ -2940,7 +2950,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>14</v>
       </c>
@@ -2972,7 +2982,7 @@
         <v>8998</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="H44" s="2" t="s">
         <v>56</v>
       </c>
@@ -2980,7 +2990,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>15</v>
       </c>
@@ -3001,27 +3011,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="20" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.1796875" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3063,7 +3073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
+    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3098,7 +3108,7 @@
         <v>41996</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H3" s="2" t="s">
         <v>71</v>
       </c>
@@ -3106,7 +3116,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H4" s="2" t="s">
         <v>72</v>
       </c>
@@ -3114,7 +3124,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H5" s="2" t="s">
         <v>72</v>
       </c>
@@ -3122,7 +3132,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3157,7 +3167,7 @@
         <v>33995</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75">
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D7" s="21">
         <v>43744</v>
       </c>
@@ -3168,7 +3178,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75">
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D8" s="21">
         <v>43744</v>
       </c>
@@ -3179,7 +3189,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75">
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D9" s="21">
         <v>43747</v>
       </c>
@@ -3190,15 +3200,15 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="H10" s="10" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H10" s="3" t="s">
         <v>77</v>
       </c>
       <c r="I10">
         <v>4999</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3233,7 +3243,7 @@
         <v>8099</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
@@ -3268,7 +3278,7 @@
         <v>8099</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
@@ -3303,7 +3313,7 @@
         <v>15999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75">
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3338,7 +3348,7 @@
         <v>30997</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
@@ -3346,7 +3356,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H16" s="2" t="s">
         <v>81</v>
       </c>
@@ -3354,7 +3364,7 @@
         <v>11999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75">
+    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>7</v>
       </c>
@@ -3382,14 +3392,14 @@
       <c r="I17" s="2">
         <v>12849</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K17">
         <v>12849</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75">
+    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>8</v>
       </c>
@@ -3417,12 +3427,12 @@
       <c r="I18" s="2">
         <v>12499</v>
       </c>
-      <c r="J18" s="10"/>
+      <c r="J18" s="6"/>
       <c r="K18">
         <v>12499</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75">
+    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>9</v>
       </c>
@@ -3457,7 +3467,7 @@
         <v>14391</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75">
+    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>10</v>
       </c>
@@ -3492,7 +3502,7 @@
         <v>8999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75">
+    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>11</v>
       </c>
@@ -3520,7 +3530,9 @@
       <c r="I21" s="2">
         <v>9999</v>
       </c>
-      <c r="J21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="K21" s="2">
         <v>9999</v>
       </c>
@@ -3528,7 +3540,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75">
+    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>12</v>
       </c>
@@ -3556,7 +3568,7 @@
       <c r="I22" s="2">
         <v>10999</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="6" t="s">
         <v>107</v>
       </c>
       <c r="K22" s="2">
@@ -3569,7 +3581,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75">
+    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>13</v>
       </c>
@@ -3598,14 +3610,14 @@
         <v>10999</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="K23" s="2">
         <v>10999</v>
       </c>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75">
+    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>14</v>
       </c>
@@ -3640,7 +3652,7 @@
         <v>21998</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H25" s="2" t="s">
         <v>86</v>
       </c>
@@ -3648,7 +3660,7 @@
         <v>11999</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75">
+    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>15</v>
       </c>
@@ -3676,14 +3688,14 @@
       <c r="I26" s="2">
         <v>5999</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="6" t="s">
         <v>87</v>
       </c>
       <c r="K26" s="2">
         <v>25996</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H27" s="2" t="s">
         <v>75</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H28" s="2" t="s">
         <v>76</v>
       </c>
@@ -3699,7 +3711,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H29" s="2" t="s">
         <v>76</v>
       </c>
@@ -3714,22 +3726,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3771,7 +3783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3808,7 +3820,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3829,7 +3841,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3865,7 +3877,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3885,7 +3897,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="16.5">
+    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -3920,7 +3932,7 @@
         <v>23995</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3937,7 +3949,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3954,7 +3966,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3971,7 +3983,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="16.5">
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4007,7 +4019,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -4040,7 +4052,7 @@
         <v>12998</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -4057,7 +4069,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4078,7 +4090,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75">
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -4116,7 +4128,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4136,7 +4148,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4156,7 +4168,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4176,7 +4188,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -4209,7 +4221,7 @@
         <v>8099</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -4242,7 +4254,7 @@
         <v>8099</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -4275,7 +4287,7 @@
         <v>8099</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75">
+    <row r="21" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -4308,7 +4320,7 @@
         <v>30997</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4325,7 +4337,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4342,7 +4354,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75">
+    <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -4375,7 +4387,7 @@
         <v>12849</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75">
+    <row r="25" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>9</v>
       </c>
@@ -4410,7 +4422,7 @@
         <v>14391</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75">
+    <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>10</v>
       </c>
@@ -4445,7 +4457,7 @@
         <v>8999</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75">
+    <row r="27" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>11</v>
       </c>
@@ -4478,7 +4490,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75">
+    <row r="28" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>13</v>
       </c>
@@ -4511,7 +4523,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75">
+    <row r="29" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>14</v>
       </c>
@@ -4544,7 +4556,7 @@
         <v>21998</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4561,7 +4573,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75">
+    <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>15</v>
       </c>
@@ -4596,7 +4608,7 @@
         <v>25996</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4613,7 +4625,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4630,7 +4642,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4657,21 +4669,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>100</v>
       </c>
@@ -4680,7 +4692,7 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -4706,7 +4718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>43750</v>
       </c>
@@ -4733,7 +4745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>58</v>
       </c>
@@ -4757,7 +4769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
@@ -4781,7 +4793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>71</v>
       </c>
@@ -4805,7 +4817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>72</v>
       </c>
@@ -4829,7 +4841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>92</v>
       </c>
@@ -4853,7 +4865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>93</v>
       </c>
@@ -4877,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>43759</v>
       </c>
@@ -4904,7 +4916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>94</v>
       </c>
@@ -4928,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>95</v>
       </c>
@@ -4952,7 +4964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
@@ -4976,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -5000,7 +5012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>71</v>
       </c>
@@ -5024,7 +5036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>96</v>
       </c>
@@ -5048,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>99</v>
       </c>
@@ -5072,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>97</v>
       </c>
@@ -5096,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
@@ -5120,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>82</v>
       </c>
@@ -5144,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>101</v>
       </c>
@@ -5163,7 +5175,7 @@
         <v>272000</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="25" t="s">
         <v>102</v>
       </c>
@@ -5181,7 +5193,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>96</v>
       </c>
@@ -5196,7 +5208,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>103</v>
       </c>
@@ -5211,7 +5223,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
@@ -5226,7 +5238,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>104</v>
       </c>
@@ -5241,7 +5253,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>82</v>
       </c>
@@ -5256,7 +5268,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>92</v>
       </c>
@@ -5271,7 +5283,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>93</v>
       </c>
@@ -5286,7 +5298,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
@@ -5301,7 +5313,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
@@ -5316,7 +5328,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>81</v>
       </c>
@@ -5335,7 +5347,7 @@
         <v>244000</v>
       </c>
     </row>
-    <row r="33" spans="4:5">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" s="5">
         <f>SUM(D3:D31)</f>
         <v>67</v>
@@ -5352,26 +5364,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.81640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5404,7 +5416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -5437,7 +5449,7 @@
         <v>33995</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="D3" s="27">
@@ -5455,7 +5467,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="D4" s="27">
@@ -5473,7 +5485,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="D5" s="27">
@@ -5491,7 +5503,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -5524,7 +5536,7 @@
         <v>12499</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>12</v>
       </c>
@@ -5557,7 +5569,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -5590,7 +5602,7 @@
         <v>37354</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="D9" s="26"/>
@@ -5606,7 +5618,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="26"/>
@@ -5622,7 +5634,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="26"/>
@@ -5638,7 +5650,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="26"/>
@@ -5654,7 +5666,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -5689,7 +5701,7 @@
         <v>22995</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="26"/>
@@ -5705,7 +5717,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="26"/>
@@ -5721,7 +5733,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="D16" s="26"/>
@@ -5737,7 +5749,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -5772,7 +5784,7 @@
         <v>17998</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="D18" s="33">
@@ -5790,7 +5802,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -5825,7 +5837,7 @@
         <v>39993</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="D20" s="26"/>
@@ -5841,7 +5853,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="D21" s="33">
@@ -5859,7 +5871,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="D22" s="26"/>
@@ -5875,7 +5887,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="D23" s="26"/>
@@ -5891,7 +5903,7 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="D24" s="26"/>
@@ -5907,7 +5919,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="D25" s="26"/>
@@ -5923,7 +5935,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>7</v>
       </c>
@@ -5958,7 +5970,7 @@
         <v>16997</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="D27" s="26"/>
@@ -5974,7 +5986,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="D28" s="26"/>
@@ -5990,7 +6002,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>10</v>
       </c>
@@ -6025,7 +6037,7 @@
         <v>21997</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="D30" s="26"/>
@@ -6041,7 +6053,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="D31" s="26"/>
@@ -6057,7 +6069,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>11</v>
       </c>
@@ -6092,7 +6104,7 @@
         <v>9998</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="D33" s="26"/>
@@ -6108,7 +6120,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>13</v>
       </c>
@@ -6141,7 +6153,7 @@
         <v>17997</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="D35" s="35"/>
@@ -6157,7 +6169,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="D36" s="34">
